--- a/Data/更多护盾腰带 - 3265661340/3265661340.xlsx
+++ b/Data/更多护盾腰带 - 3265661340/3265661340.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\更多护盾腰带 - 3265661340\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\更多护盾腰带 - 3265661340\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089E7AC-1B3F-4EBB-A64D-650152D73262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321992CB-EF2A-4866-8B49-18001C3201E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240706" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,161 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '高级护盾腰带'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '一个单人用的能量护盾装置。它可以拦截袭来的投射物或弹片，但无法阻挡近战攻击、高温以及火焰。它的能量立场采用了一种特殊的波频，因此穿戴者可以向外射击。高级护盾腰带遭受EMP打击后会立即耗尽能量。'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '虚空护盾腰带'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '一条利用暗黑超凡碎片制作的护盾装置，能够以灵能将所有射入的投射物折跃至虚空，拥有极高的能量上限，但无法被再次充能，且能量耗尽时会湮灭。'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '超凡护盾腰带'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '一个由超凡微械组成的单人用智能腰带。其内置AI会自动调节能量立场以防止任何攻击和环境威胁，与此同时穿戴者可以毫不受限的向外射击。'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '灵能护盾腰带'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '一个由启灵装置制作的灵能护盾腰带，只有灵能者能够集中精神以灵能驱动它防御任何形式的攻击。高级灵能者还能够以灵能护盾避免环境威胁。'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '环境保护'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22 이전의 원문: '靶向屏蔽与生命维持系统使受护者免受大部分环境威胁的影响。'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-22에 새로 추가된 노드들 (6개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -62,7 +215,10 @@
     <t>Apparel_ShieldBeltEx.label</t>
   </si>
   <si>
-    <t>高级护盾腰带</t>
+    <t>A single person energy shield device. It can intercept incoming projectiles or shrapnel, but cannot block melee attacks, high temperatures, and flames. Its energy stance adopts a special wave frequency, so the wearer can shoot outward. The advanced shield belt will immediately deplete its energy after being hit by EMP.</t>
+  </si>
+  <si>
+    <t>고급 보호막 벨트</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltEx.description</t>
@@ -71,7 +227,10 @@
     <t>Apparel_ShieldBeltEx.description</t>
   </si>
   <si>
-    <t>一个单人用的能量护盾装置。它可以拦截袭来的投射物或弹片，但无法阻挡近战攻击、高温以及火焰。它的能量立场采用了一种特殊的波频，因此穿戴者可以向外射击。高级护盾腰带遭受EMP打击后会立即耗尽能量。</t>
+    <t>Void Shield Belt</t>
+  </si>
+  <si>
+    <t>강력한 투사체 방어 장치입니다. 다가오는 모든 투사체나 파편을 방어하지만 근접 공격이나 열기는 막지 못합니다. 착용자의 공격을 차단하지 않으나 전자기 공격을 받으면 즉시 해제됩니다.</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltVoid.label</t>
@@ -80,7 +239,10 @@
     <t>Apparel_ShieldBeltVoid.label</t>
   </si>
   <si>
-    <t>虚空护盾腰带</t>
+    <t>A shield device made from dark archotech shard, capable of breaking all incoming damage into the void with psycast. It has an extremely high energy limit, but cannot be recharged and will be destroyed when energy depleted.</t>
+  </si>
+  <si>
+    <t>공허 보호막 벨트</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltVoid.description</t>
@@ -89,7 +251,10 @@
     <t>Apparel_ShieldBeltVoid.description</t>
   </si>
   <si>
-    <t>一条利用暗黑超凡碎片制作的护盾装置，能够以灵能将所有射入的投射物折跃至虚空，拥有极高的能量上限，但无法被再次充能，且能量耗尽时会湮灭。</t>
+    <t>Archotech Shield Belt</t>
+  </si>
+  <si>
+    <t>어둠의 초월공학 파편으로 만든 투사체 방어 장치입니다. 다가오는 모든 투사체나 파편을 공허로 날려버립니다. 에너지 한도가 매우 높지만 재충전이 불가능하고 에너지가 고갈되면 소멸합니다.</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltArcho.label</t>
@@ -98,7 +263,10 @@
     <t>Apparel_ShieldBeltArcho.label</t>
   </si>
   <si>
-    <t>超凡护盾腰带</t>
+    <t>A single person smart belt composed of extraordinary micro devices. Its built-in AI will automatically adjust the energy position to prevent any attacks or environmental threats., while the wearer can shoot out without any restrictions.It can recharge even it broken,and will active when it full with energy.</t>
+  </si>
+  <si>
+    <t>초월공학 보호막 벨트</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltArcho.description</t>
@@ -107,7 +275,10 @@
     <t>Apparel_ShieldBeltArcho.description</t>
   </si>
   <si>
-    <t>一个由超凡微械组成的单人用智能腰带。其内置AI会自动调节能量立场以防止任何攻击和环境威胁，与此同时穿戴者可以毫不受限的向外射击。</t>
+    <t>Psychic Shield Belt</t>
+  </si>
+  <si>
+    <t>초월공학 기술로 제작된 투사체 방어 장치입니다. 내장된 인공지능이 자동으로 위상을 조정하여 공격을 방어합니다. 착용자의 공격을 차단하지 않습니다.</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltPsychic.label</t>
@@ -116,7 +287,10 @@
     <t>Apparel_ShieldBeltPsychic.label</t>
   </si>
   <si>
-    <t>灵能护盾腰带</t>
+    <t>A psychic shield belt made from an psychic amplifier that only a psychic can concentrate their psycast to drive it to defend against any form of attack.Advanced psycasters can also use it to avoid environmental threats.</t>
+  </si>
+  <si>
+    <t>초능력 보호막 벨트</t>
   </si>
   <si>
     <t>ThingDef+Apparel_ShieldBeltPsychic.description</t>
@@ -125,7 +299,10 @@
     <t>Apparel_ShieldBeltPsychic.description</t>
   </si>
   <si>
-    <t>一个由启灵装置制作的灵能护盾腰带，只有灵能者能够集中精神以灵能驱动它防御任何形式的攻击。高级灵能者还能够以灵能护盾避免环境威胁。</t>
+    <t>Environmental Protection</t>
+  </si>
+  <si>
+    <t>초능력자만이 사용할 수 있는 투사체 방어 장치입니다. 초집중을 소모해 모든 형태의 공격을 막아낼 수 있으며, 누적된 피해를 신경열로 전환합니다.</t>
   </si>
   <si>
     <t>HediffDef+ShieldBeltEnvironmentProtect.label</t>
@@ -137,7 +314,10 @@
     <t>ShieldBeltEnvironmentProtect.label</t>
   </si>
   <si>
-    <t>环境保护</t>
+    <t>Targeted shielding and life support systems protect protected individuals from most environmental threats.</t>
+  </si>
+  <si>
+    <t>전방위 보호</t>
   </si>
   <si>
     <t>HediffDef+ShieldBeltEnvironmentProtect.description</t>
@@ -146,44 +326,101 @@
     <t>ShieldBeltEnvironmentProtect.description</t>
   </si>
   <si>
-    <t>靶向屏蔽与生命维持系统使受护者免受大部分环境威胁的影响。</t>
-  </si>
-  <si>
-    <t>초능력자만이 사용할 수 있는 투사체 방어 장치입니다. 초집중을 소모해 모든 형태의 공격을 막아낼 수 있으며, 누적된 피해를 신경열로 전환합니다.</t>
-  </si>
-  <si>
-    <t>초능력 보호막 벨트</t>
-  </si>
-  <si>
-    <t>초월공학 기술로 제작된 투사체 방어 장치입니다. 내장된 인공지능이 자동으로 위상을 조정하여 공격을 방어합니다. 착용자의 공격을 차단하지 않습니다.</t>
-  </si>
-  <si>
-    <t>초월공학 보호막 벨트</t>
-  </si>
-  <si>
-    <t>어둠의 초월공학 파편으로 만든 투사체 방어 장치입니다. 다가오는 모든 투사체나 파편을 공허로 날려버립니다. 에너지 한도가 매우 높지만 재충전이 불가능하고 에너지가 고갈되면 소멸합니다.</t>
-  </si>
-  <si>
-    <t>공허 보호막 벨트</t>
-  </si>
-  <si>
-    <t>강력한 투사체 방어 장치입니다. 다가오는 모든 투사체나 파편을 방어하지만 근접 공격이나 열기는 막지 못합니다. 착용자의 공격을 차단하지 않으나 전자기 공격을 받으면 즉시 해제됩니다.</t>
-  </si>
-  <si>
-    <t>고급 보호막 벨트</t>
+    <t>StatDef+HemogenMaxOffset.label</t>
   </si>
   <si>
     <t>보호막 벨트에 내장된 인공지능으로 주변의 위험을 자동으로 탐지하고 방어합니다.</t>
   </si>
   <si>
-    <t>전방위 보호</t>
+    <t>Advanced Shield Belt</t>
+  </si>
+  <si>
+    <t>StatDef</t>
+  </si>
+  <si>
+    <t>HemogenMaxOffset.label</t>
+  </si>
+  <si>
+    <t>Hemogen Max Offset</t>
+  </si>
+  <si>
+    <t>StatDef+HemogenMaxOffset.description</t>
+  </si>
+  <si>
+    <t>HemogenMaxOffset.description</t>
+  </si>
+  <si>
+    <t>The maximum hemogen offset.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_ShieldBeltBlood.label</t>
+  </si>
+  <si>
+    <t>Apparel_ShieldBeltBlood.label</t>
+  </si>
+  <si>
+    <t>Blood Shield Belt</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_ShieldBeltBlood.description</t>
+  </si>
+  <si>
+    <t>Apparel_ShieldBeltBlood.description</t>
+  </si>
+  <si>
+    <t>An evil belt driven by hemogen, offering wounds in an unclear way. This art of blood can only be mastered by the sanguophage clan, and the blood shed by the outstanding ones is enough to dye the ocean red.</t>
+  </si>
+  <si>
+    <t>Keyed+SEB.Comps.ShieldSwitchLabel</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>SEB.Comps.ShieldSwitchLabel</t>
+  </si>
+  <si>
+    <t>Shield Button</t>
+  </si>
+  <si>
+    <t>Keyed+SEB.Comps.ShieldSwitchDesc</t>
+  </si>
+  <si>
+    <t>SEB.Comps.ShieldSwitchDesc</t>
+  </si>
+  <si>
+    <t>Press the button to switch shield.</t>
+  </si>
+  <si>
+    <t>최대 혈액정수 보유량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대로 보유할 수 있는 혈액정수의 양.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액 보호막 벨트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 눌로 보호막을 켭니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액정수를 소모해 작동하는 투사체 방어 장치입니다. 작동 시 알 수 없는 방법으로 상처를 입힙니다. 생귀오파지 일족만이 이러한 피의 기술을 온전히 익혀 다룰 수 있으며, 그중에서도 뛰어난 이들은 한 방울의 피로 바다를 붉게 물들일 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,13 +439,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,9 +476,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -527,11 +782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -542,7 +797,8 @@
     <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.26953125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -575,127 +831,127 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
@@ -703,40 +959,143 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/更多护盾腰带 - 3265661340/3265661340.xlsx
+++ b/Data/更多护盾腰带 - 3265661340/3265661340.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\更多护盾腰带 - 3265661340\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321992CB-EF2A-4866-8B49-18001C3201E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E87D2-4F40-4ABD-87F7-5B3E62BD4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버튼을 눌로 보호막을 켭니다.</t>
+    <t>혈액정수를 소모해 작동하는 투사체 방어 장치입니다. 작동 시 알 수 없는 방법으로 상처를 입힙니다. 생귀오파지 일족만이 이러한 피의 기술을 온전히 익혀 다룰 수 있으며, 그중에서도 뛰어난 이들은 한 방울의 피로 바다를 붉게 물들일 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>혈액정수를 소모해 작동하는 투사체 방어 장치입니다. 작동 시 알 수 없는 방법으로 상처를 입힙니다. 생귀오파지 일족만이 이러한 피의 기술을 온전히 익혀 다룰 수 있으며, 그중에서도 뛰어난 이들은 한 방울의 피로 바다를 붉게 물들일 수 있습니다.</t>
+    <t>버튼을 눌러 보호막을 켜거나 끕니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +786,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1090,7 +1090,7 @@
         <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
